--- a/par_calc/parameter_calculator.xlsx
+++ b/par_calc/parameter_calculator.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -53,15 +53,19 @@
   </si>
   <si>
     <t xml:space="preserve">Overall heat transfer coefficient (W/m2-K)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall resistance R (K-m2/W)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -143,7 +147,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,17 +157,21 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -229,22 +237,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,7 +300,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -327,7 +333,16 @@
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">1/(1/B7+1/B8+(B9/1000)/B10)</f>
-        <v>15.3846153846154</v>
+        <v>22.2222222222222</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <f aca="false">1/B11</f>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>

--- a/par_calc/parameter_calculator.xlsx
+++ b/par_calc/parameter_calculator.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Solar area" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Air resistance" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Wall resistance" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">Description</t>
   </si>
@@ -56,16 +58,23 @@
   </si>
   <si>
     <t xml:space="preserve">Overall resistance R (K-m2/W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall/floor thickness (cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall/floor conductivity (W/m-K)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -147,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,6 +170,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,11 +256,11 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
@@ -354,4 +367,160 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <f aca="false">1/(1/B2+1/B3+(B4/1000)/B5)</f>
+        <v>33.3333333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <f aca="false">1/B6</f>
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <f aca="false">B3/(B2/100)</f>
+        <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <f aca="false">1/B4</f>
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>